--- a/Documents/Testing/TestsDocuments/BB+WB_GetTruckByReference.xlsx
+++ b/Documents/Testing/TestsDocuments/BB+WB_GetTruckByReference.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cescadelacruz/Desktop/CPA/SFT221/MS3-PROJECT-SFT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cescadelacruz/Documents/GitHub/SUM23-SFT221-NAA-4/Documents/Testing/TestsDocuments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7F7C77-2052-7F4D-BE5C-4126CB1F69F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE123F48-BD55-4A43-A521-C82133C9FB28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="1" r:id="rId1"/>
@@ -99,6 +99,164 @@
 This function is used to sort the trucks based on their volume and weight, and their distance from the destination. </t>
   </si>
   <si>
+    <t>BB_TestGetTruckByReference1</t>
+  </si>
+  <si>
+    <t>BB_TestGetTruckByReference2</t>
+  </si>
+  <si>
+    <t>BB_TestGetTruckByReference3</t>
+  </si>
+  <si>
+    <t>BB_TestGetTruckByReference4</t>
+  </si>
+  <si>
+    <t>BB_TestGetTruckByReference5</t>
+  </si>
+  <si>
+    <t>BB_TestGetTruckByReference6</t>
+  </si>
+  <si>
+    <t>BB_TestGetTruckByReference7</t>
+  </si>
+  <si>
+    <t>BB_TestGetTruckByReference8</t>
+  </si>
+  <si>
+    <t>Pass/Fail</t>
+  </si>
+  <si>
+    <t>Check function returns pointer to first truck</t>
+  </si>
+  <si>
+    <t>Check function returns pointer to second truck</t>
+  </si>
+  <si>
+    <t>Check function returns pointer to third truck</t>
+  </si>
+  <si>
+    <t>FUNCTION: GetTruckByReference</t>
+  </si>
+  <si>
+    <t>WB_TestGetTruckByReference1</t>
+  </si>
+  <si>
+    <t>WB_TestGetTruckByReference2</t>
+  </si>
+  <si>
+    <t>Find pointer to truck with only 1 truck in the Fleet struct.</t>
+  </si>
+  <si>
+    <t>current.G.route.routeSymbol = 2;
+		current.B.route.routeSymbol = -1;
+		current.Y.route.routeSymbol = -1;
+struct Fleet *fleetCopy = &amp;current;
+ getTruckByReference(fleetCopy, 2);</t>
+  </si>
+  <si>
+    <t>Output = &amp;current.G
+Assert::AreEqual = true
+Assert::IsNotNull = true</t>
+  </si>
+  <si>
+    <t>Return NULL when the pointer to Fleet is NULL</t>
+  </si>
+  <si>
+    <t>struct Fleet *nullFleet = NULL;
+getTruckByReference(nullFleet, 2);</t>
+  </si>
+  <si>
+    <t>Output = NULL
+Assert::IsNull = true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	struct Fleet *fleetCopy = &amp;current
+getTruckByReference(fleetCopy, 4)
+current.G.route.routeSymbol = 4;
+	current.B.route.routeSymbol = 2;
+	current.Y.route.routeSymbol = 8;</t>
+  </si>
+  <si>
+    <t>struct Fleet *fleetCopy = &amp;current;
+getTruckByReference(&amp;fleetCopy, 2)
+current.G.route.routeSymbol = 4;
+	current.B.route.routeSymbol = 2;
+	current.Y.route.routeSymbol = 8;</t>
+  </si>
+  <si>
+    <t>struct Fleet *fleetCopy = &amp;current;
+getTruckByReference(&amp;fleetCopy, 0)
+current.G.route.routeSymbol = 4;
+	current.B.route.routeSymbol = 2;
+	current.Y.route.routeSymbol = 8;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">struct Fleet *fleetCopy = &amp;current;
+getTruckByReference(&amp;fleetCopy, -1)
+current.G.route.routeSymbol = -1;
+	current.B.route.routeSymbol = 0;
+</t>
+  </si>
+  <si>
+    <t>struct Fleet *fleetCopy = &amp;current;
+getTruckByReference(&amp;fleetCopy, 8)
+current.G.route.routeSymbol = 4;
+	current.B.route.routeSymbol = 2;
+	current.Y.route.routeSymbol = 8;</t>
+  </si>
+  <si>
+    <t>struct Fleet *fleetCopy = &amp;current;
+getTruckByReference(&amp;fleetCopy, 0)
+current.G.route.routeSymbol = -1;
+	current.B.route.routeSymbol = 0;
+	current.Y.route.routeSymbol = 8;</t>
+  </si>
+  <si>
+    <t>struct Fleet *fleetCopy = &amp;current;
+getTruckByReference(&amp;fleetCopy, 8)
+current.G.route = getGreenRoute();
+	current.G.route.routeSymbol = 8;
+	current.B.route = getBlueRoute();
+	current.B.route.routeSymbol = 8;
+	current.Y.route = getYellowRoute();
+	current.Y.route.routeSymbol = 8;</t>
+  </si>
+  <si>
+    <t>expected truck = &amp;current.B
+Assert::AreNotEqual = true</t>
+  </si>
+  <si>
+    <t>expected truck = &amp;current.G
+Assert::AreEqual = true</t>
+  </si>
+  <si>
+    <t>expected truck = &amp;current.B
+Assert::AreEqual = true</t>
+  </si>
+  <si>
+    <t>expected truck = NULL
+Assert::IsNull = true</t>
+  </si>
+  <si>
+    <t>expected truck = &amp;current.Y
+Assert::AreEqual = true</t>
+  </si>
+  <si>
+    <t>Check function returns a truck when routeSymbol argument is a negative number</t>
+  </si>
+  <si>
+    <t>Check function returns NULL when routeSymbol argument is 0 and does not match any truck's routeSymbol</t>
+  </si>
+  <si>
+    <t>Check function returns pointer to truck if its routeSymbol and the routeSymbol argument are both 0</t>
+  </si>
+  <si>
+    <t>Check function returns pointer to first truck if all routeSymbols are the same</t>
+  </si>
+  <si>
+    <t>Check function does not return first truck second truck if all routeSymbols are the same</t>
+  </si>
+  <si>
     <t>Blackbox Setup:
 1.	Copy the Fleet struct (parameter 1) that nests the 3 Truck structs. 
 2.	Ensure that each Truck struct has a unique routeSymbol assigned (e.g. 4, 2, and 8). 
@@ -107,166 +265,13 @@
 5.	Declare and define a pointer that is assigned the Truck struct we expect to be returned.
 6.	Create assertions to compare the return value with the expected value and validate the returned Truck pointer.
 Whitebox Setup
-1.
-2.</t>
-  </si>
-  <si>
-    <t>BB_TestGetTruckByReference1</t>
-  </si>
-  <si>
-    <t>BB_TestGetTruckByReference2</t>
-  </si>
-  <si>
-    <t>BB_TestGetTruckByReference3</t>
-  </si>
-  <si>
-    <t>BB_TestGetTruckByReference4</t>
-  </si>
-  <si>
-    <t>BB_TestGetTruckByReference5</t>
-  </si>
-  <si>
-    <t>BB_TestGetTruckByReference6</t>
-  </si>
-  <si>
-    <t>BB_TestGetTruckByReference7</t>
-  </si>
-  <si>
-    <t>BB_TestGetTruckByReference8</t>
-  </si>
-  <si>
-    <t>Pass/Fail</t>
-  </si>
-  <si>
-    <t>Check function returns pointer to first truck</t>
-  </si>
-  <si>
-    <t>Check function returns pointer to second truck</t>
-  </si>
-  <si>
-    <t>Check function returns pointer to third truck</t>
-  </si>
-  <si>
-    <t>FUNCTION: GetTruckByReference</t>
-  </si>
-  <si>
-    <t>WB_TestGetTruckByReference1</t>
-  </si>
-  <si>
-    <t>WB_TestGetTruckByReference2</t>
-  </si>
-  <si>
-    <t>Find pointer to truck with only 1 truck in the Fleet struct.</t>
-  </si>
-  <si>
-    <t>current.G.route.routeSymbol = 2;
-		current.B.route.routeSymbol = -1;
-		current.Y.route.routeSymbol = -1;
-struct Fleet *fleetCopy = &amp;current;
- getTruckByReference(fleetCopy, 2);</t>
-  </si>
-  <si>
-    <t>Output = &amp;current.G
-Assert::AreEqual = true
-Assert::IsNotNull = true</t>
-  </si>
-  <si>
-    <t>Return NULL when the pointer to Fleet is NULL</t>
-  </si>
-  <si>
-    <t>struct Fleet *nullFleet = NULL;
-getTruckByReference(nullFleet, 2);</t>
-  </si>
-  <si>
-    <t>Output = NULL
-Assert::IsNull = true</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	struct Fleet *fleetCopy = &amp;current
-getTruckByReference(fleetCopy, 4)
-current.G.route.routeSymbol = 4;
-	current.B.route.routeSymbol = 2;
-	current.Y.route.routeSymbol = 8;</t>
-  </si>
-  <si>
-    <t>struct Fleet *fleetCopy = &amp;current;
-getTruckByReference(&amp;fleetCopy, 2)
-current.G.route.routeSymbol = 4;
-	current.B.route.routeSymbol = 2;
-	current.Y.route.routeSymbol = 8;</t>
-  </si>
-  <si>
-    <t>struct Fleet *fleetCopy = &amp;current;
-getTruckByReference(&amp;fleetCopy, 0)
-current.G.route.routeSymbol = 4;
-	current.B.route.routeSymbol = 2;
-	current.Y.route.routeSymbol = 8;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">struct Fleet *fleetCopy = &amp;current;
-getTruckByReference(&amp;fleetCopy, -1)
-current.G.route.routeSymbol = -1;
-	current.B.route.routeSymbol = 0;
-</t>
-  </si>
-  <si>
-    <t>struct Fleet *fleetCopy = &amp;current;
-getTruckByReference(&amp;fleetCopy, 8)
-current.G.route.routeSymbol = 4;
-	current.B.route.routeSymbol = 2;
-	current.Y.route.routeSymbol = 8;</t>
-  </si>
-  <si>
-    <t>struct Fleet *fleetCopy = &amp;current;
-getTruckByReference(&amp;fleetCopy, 0)
-current.G.route.routeSymbol = -1;
-	current.B.route.routeSymbol = 0;
-	current.Y.route.routeSymbol = 8;</t>
-  </si>
-  <si>
-    <t>struct Fleet *fleetCopy = &amp;current;
-getTruckByReference(&amp;fleetCopy, 8)
-current.G.route = getGreenRoute();
-	current.G.route.routeSymbol = 8;
-	current.B.route = getBlueRoute();
-	current.B.route.routeSymbol = 8;
-	current.Y.route = getYellowRoute();
-	current.Y.route.routeSymbol = 8;</t>
-  </si>
-  <si>
-    <t>expected truck = &amp;current.B
-Assert::AreNotEqual = true</t>
-  </si>
-  <si>
-    <t>expected truck = &amp;current.G
-Assert::AreEqual = true</t>
-  </si>
-  <si>
-    <t>expected truck = &amp;current.B
-Assert::AreEqual = true</t>
-  </si>
-  <si>
-    <t>expected truck = NULL
-Assert::IsNull = true</t>
-  </si>
-  <si>
-    <t>expected truck = &amp;current.Y
-Assert::AreEqual = true</t>
-  </si>
-  <si>
-    <t>Check function returns a truck when routeSymbol argument is a negative number</t>
-  </si>
-  <si>
-    <t>Check function returns NULL when routeSymbol argument is 0 and does not match any truck's routeSymbol</t>
-  </si>
-  <si>
-    <t>Check function returns pointer to truck if its routeSymbol and the routeSymbol argument are both 0</t>
-  </si>
-  <si>
-    <t>Check function returns pointer to first truck if all routeSymbols are the same</t>
-  </si>
-  <si>
-    <t>Check function does not return first truck second truck if all routeSymbols are the same</t>
+1.Copy the Fleet struct (parameter 1) that nests the 3 Truck structs. 
+2.	Ensure that each Truck struct has a unique routeSymbol assigned (e.g. 4, 2, and 8). 
+3.	Define the argument for the routeSymbol parameter (parameter 2). 
+4.	Call getTruckByReference with the copied Fleet struct and the routeSymbol arguments.
+Declare and define a pointer that is assigned the Truck struct we expect to be returned.
+6.	Create assertion to compare the return value with the expected value and validate the returned Truck pointer.
+7. Create assertion to check if NULL was returned.</t>
   </si>
 </sst>
 </file>
@@ -455,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -527,9 +532,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -813,8 +815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -928,7 +930,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -976,7 +978,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -1001,150 +1003,150 @@
         <v>4</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="96" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" ht="96" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="96" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" ht="96" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" ht="144" x14ac:dyDescent="0.2">
-      <c r="A9" s="26" t="s">
-        <v>26</v>
+      <c r="A9" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" ht="144" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="F10" s="8"/>
     </row>
@@ -1266,7 +1268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29DBEBE5-E65B-48FE-ACB2-E1CF3882866A}">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -1282,7 +1284,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -1307,42 +1309,42 @@
         <v>4</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="96" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>40</v>
       </c>
       <c r="F4" s="8"/>
     </row>
@@ -1506,6 +1508,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008641478389A1824A98F5C5E0B6162E5F" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9ef4b42a3ed9448361827c423e89ef89">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="81b064ac-ebcb-49a1-93f6-e61f75bebfa7" xmlns:ns3="717d1b07-b5a1-4bb5-9d40-3a9b6c764643" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0bb8b9f62ca6562dff4b6b6c0721aa08" ns2:_="" ns3:_="">
     <xsd:import namespace="81b064ac-ebcb-49a1-93f6-e61f75bebfa7"/>
@@ -1676,15 +1687,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D20CED7A-A184-4DAD-98D0-D68B5D737C5B}">
   <ds:schemaRefs>
@@ -1703,6 +1705,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A445DA8-61DA-4B15-A75B-C715E0A15404}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35A5AAF0-BBBC-48E3-AADB-8E4922D37D7D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1719,12 +1729,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A445DA8-61DA-4B15-A75B-C715E0A15404}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documents/Testing/TestsDocuments/BB+WB_GetTruckByReference.xlsx
+++ b/Documents/Testing/TestsDocuments/BB+WB_GetTruckByReference.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cescadelacruz/Documents/GitHub/SUM23-SFT221-NAA-4/Documents/Testing/TestsDocuments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE123F48-BD55-4A43-A521-C82133C9FB28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F274763C-EDB2-A842-9979-7305EA43260C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="59">
   <si>
     <t>SFT 221</t>
   </si>
@@ -89,14 +89,7 @@
     <t>Anna Francesca Dela Cruz (Cesca)</t>
   </si>
   <si>
-    <t>TestGetTruckByReference</t>
-  </si>
-  <si>
     <t>Blackbox and Whitebox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This function retrieves a pointer to a Truck based on its routeSymbol. The function accesses the routeSymbol inside the nested structs of current and iterates over them. If the routeSymbol of a Truck matches the argument of the routeSymbol parameter (either 2, 4, or 8), then the pointer to the matching Truck is returned. If no matching truck is found, it returns a NULL pointer.
-This function is used to sort the trucks based on their volume and weight, and their distance from the destination. </t>
   </si>
   <si>
     <t>BB_TestGetTruckByReference1</t>
@@ -160,10 +153,6 @@
   </si>
   <si>
     <t>Return NULL when the pointer to Fleet is NULL</t>
-  </si>
-  <si>
-    <t>struct Fleet *nullFleet = NULL;
-getTruckByReference(nullFleet, 2);</t>
   </si>
   <si>
     <t>Output = NULL
@@ -257,6 +246,24 @@
     <t>Check function does not return first truck second truck if all routeSymbols are the same</t>
   </si>
   <si>
+    <t>This function retrieves a pointer to a Truck based on its routeSymbol. The function accesses the routeSymbol inside the nested structs of current and iterates over them. If the routeSymbol of a Truck matches the argument of the routeSymbol parameter (either 2, 4, or 8), then the pointer to the matching Truck is returned. If no matching truck is found, it returns a NULL pointer.
+This function is used to sort the trucks based on their volume and weight, and their distance from the destination. 
+The purpose of the test is to ensure the function returns the correct Truck pointer based on the argument of the routeSymbol parameter.</t>
+  </si>
+  <si>
+    <t>getTrucksByReferencetests</t>
+  </si>
+  <si>
+    <t>struct Fleet *nullFleet;
+			nullFleet.G.route.routeSymbol = NULL;
+			nullFleet.B.route.routeSymbol = NULL;
+			nullFleet.Y.route.routeSymbol = NULL;
+getTruckByReference(&amp;nullFleet, 2);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pass </t>
+  </si>
+  <si>
     <t>Blackbox Setup:
 1.	Copy the Fleet struct (parameter 1) that nests the 3 Truck structs. 
 2.	Ensure that each Truck struct has a unique routeSymbol assigned (e.g. 4, 2, and 8). 
@@ -264,7 +271,7 @@
 4.	Call getTruckByReference with the copied Fleet struct and the routeSymbol arguments.
 5.	Declare and define a pointer that is assigned the Truck struct we expect to be returned.
 6.	Create assertions to compare the return value with the expected value and validate the returned Truck pointer.
-Whitebox Setup
+Whitebox Setup:
 1.Copy the Fleet struct (parameter 1) that nests the 3 Truck structs. 
 2.	Ensure that each Truck struct has a unique routeSymbol assigned (e.g. 4, 2, and 8). 
 3.	Define the argument for the routeSymbol parameter (parameter 2). 
@@ -460,7 +467,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -484,6 +491,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -815,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -825,120 +835,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="15"/>
     </row>
     <row r="3" spans="1:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="18"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="19">
         <v>4</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="20"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="22"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="21"/>
+      <c r="B7" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="22"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="21"/>
-    </row>
-    <row r="9" spans="1:9" ht="125" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="22"/>
+    </row>
+    <row r="9" spans="1:9" ht="174" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="21"/>
-    </row>
-    <row r="10" spans="1:9" ht="254" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="22"/>
+    </row>
+    <row r="10" spans="1:9" ht="278" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="11"/>
+      <c r="B10" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="12"/>
     </row>
     <row r="11" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
@@ -961,8 +971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B529C7-E270-4893-96A7-E1315BD69EEA}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -977,14 +987,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="25"/>
+      <c r="A1" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -1003,152 +1013,168 @@
         <v>4</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="96" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="8"/>
+        <v>45</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="96" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="8"/>
+        <v>46</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="96" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="96" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="8"/>
+        <v>47</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="8"/>
+        <v>45</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="8"/>
+        <v>46</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="144" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="8"/>
+        <v>45</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="144" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="8"/>
+        <v>44</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F11" s="3"/>
@@ -1266,10 +1292,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29DBEBE5-E65B-48FE-ACB2-E1CF3882866A}">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1283,14 +1309,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="25"/>
+      <c r="A1" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -1309,44 +1335,48 @@
         <v>4</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="96" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="F3" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
@@ -1409,52 +1439,55 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="5:13" x14ac:dyDescent="0.2">
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="5:13" x14ac:dyDescent="0.2">
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="5:13" x14ac:dyDescent="0.2">
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="5:13" x14ac:dyDescent="0.2">
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="5:13" x14ac:dyDescent="0.2">
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="5:13" x14ac:dyDescent="0.2">
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="5:13" x14ac:dyDescent="0.2">
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="5:13" x14ac:dyDescent="0.2">
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="5:13" x14ac:dyDescent="0.2">
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="5:13" x14ac:dyDescent="0.2">
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="5:13" x14ac:dyDescent="0.2">
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="5:13" x14ac:dyDescent="0.2">
       <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="M28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="5:13" x14ac:dyDescent="0.2">
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="5:13" x14ac:dyDescent="0.2">
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="5:13" x14ac:dyDescent="0.2">
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="5:13" x14ac:dyDescent="0.2">
       <c r="E32" s="3"/>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.2">
@@ -1502,12 +1535,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1516,7 +1543,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008641478389A1824A98F5C5E0B6162E5F" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9ef4b42a3ed9448361827c423e89ef89">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="81b064ac-ebcb-49a1-93f6-e61f75bebfa7" xmlns:ns3="717d1b07-b5a1-4bb5-9d40-3a9b6c764643" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0bb8b9f62ca6562dff4b6b6c0721aa08" ns2:_="" ns3:_="">
     <xsd:import namespace="81b064ac-ebcb-49a1-93f6-e61f75bebfa7"/>
@@ -1687,24 +1714,13 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D20CED7A-A184-4DAD-98D0-D68B5D737C5B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="7db3b190-d1cf-4882-bee6-3064ce691739"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="7e7c8aa9-4be2-48a6-a0f7-80013db2e73b"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A445DA8-61DA-4B15-A75B-C715E0A15404}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -1712,7 +1728,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35A5AAF0-BBBC-48E3-AADB-8E4922D37D7D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1729,4 +1745,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D20CED7A-A184-4DAD-98D0-D68B5D737C5B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="7db3b190-d1cf-4882-bee6-3064ce691739"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="7e7c8aa9-4be2-48a6-a0f7-80013db2e73b"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documents/Testing/TestsDocuments/BB+WB_GetTruckByReference.xlsx
+++ b/Documents/Testing/TestsDocuments/BB+WB_GetTruckByReference.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cescadelacruz/Documents/GitHub/SUM23-SFT221-NAA-4/Documents/Testing/TestsDocuments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F274763C-EDB2-A842-9979-7305EA43260C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686B3F2A-67F6-974E-8ED5-7F2059E2B99F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="1" r:id="rId1"/>
@@ -92,30 +92,6 @@
     <t>Blackbox and Whitebox</t>
   </si>
   <si>
-    <t>BB_TestGetTruckByReference1</t>
-  </si>
-  <si>
-    <t>BB_TestGetTruckByReference2</t>
-  </si>
-  <si>
-    <t>BB_TestGetTruckByReference3</t>
-  </si>
-  <si>
-    <t>BB_TestGetTruckByReference4</t>
-  </si>
-  <si>
-    <t>BB_TestGetTruckByReference5</t>
-  </si>
-  <si>
-    <t>BB_TestGetTruckByReference6</t>
-  </si>
-  <si>
-    <t>BB_TestGetTruckByReference7</t>
-  </si>
-  <si>
-    <t>BB_TestGetTruckByReference8</t>
-  </si>
-  <si>
     <t>Pass/Fail</t>
   </si>
   <si>
@@ -126,15 +102,6 @@
   </si>
   <si>
     <t>Check function returns pointer to third truck</t>
-  </si>
-  <si>
-    <t>FUNCTION: GetTruckByReference</t>
-  </si>
-  <si>
-    <t>WB_TestGetTruckByReference1</t>
-  </si>
-  <si>
-    <t>WB_TestGetTruckByReference2</t>
   </si>
   <si>
     <t>Find pointer to truck with only 1 truck in the Fleet struct.</t>
@@ -279,6 +246,39 @@
 Declare and define a pointer that is assigned the Truck struct we expect to be returned.
 6.	Create assertion to compare the return value with the expected value and validate the returned Truck pointer.
 7. Create assertion to check if NULL was returned.</t>
+  </si>
+  <si>
+    <t>WB_getTruckByReference1</t>
+  </si>
+  <si>
+    <t>WB_getTruckByReference2</t>
+  </si>
+  <si>
+    <t>FUNCTION: getTruckByReference</t>
+  </si>
+  <si>
+    <t>BB_getTruckByReference1</t>
+  </si>
+  <si>
+    <t>BB_getTruckByReference2</t>
+  </si>
+  <si>
+    <t>BB_getTruckByReference3</t>
+  </si>
+  <si>
+    <t>BB_getTruckByReference4</t>
+  </si>
+  <si>
+    <t>BB_getTruckByReference5</t>
+  </si>
+  <si>
+    <t>BB_getTruckByReference6</t>
+  </si>
+  <si>
+    <t>BB_getTruckByReference7</t>
+  </si>
+  <si>
+    <t>BB_getTruckByReference8</t>
   </si>
 </sst>
 </file>
@@ -825,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -895,7 +895,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
@@ -925,7 +925,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -940,7 +940,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -971,8 +971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B529C7-E270-4893-96A7-E1315BD69EEA}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -988,7 +988,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -1013,167 +1013,167 @@
         <v>4</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="96" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>37</v>
-      </c>
       <c r="E3" s="8" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="96" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="E4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>46</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="96" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="96" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>46</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="144" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="144" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1294,8 +1294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29DBEBE5-E65B-48FE-ACB2-E1CF3882866A}">
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1310,7 +1310,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -1335,47 +1335,47 @@
         <v>4</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="96" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1475,7 +1475,7 @@
     <row r="28" spans="5:13" x14ac:dyDescent="0.2">
       <c r="E28" s="3"/>
       <c r="M28" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="5:13" x14ac:dyDescent="0.2">

--- a/Documents/Testing/TestsDocuments/BB+WB_GetTruckByReference.xlsx
+++ b/Documents/Testing/TestsDocuments/BB+WB_GetTruckByReference.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cescadelacruz/Documents/GitHub/SUM23-SFT221-NAA-4/Documents/Testing/TestsDocuments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686B3F2A-67F6-974E-8ED5-7F2059E2B99F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2342907E-17D0-1C47-866D-FF12EABE217D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="1" r:id="rId1"/>
@@ -308,7 +308,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -333,6 +333,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -492,9 +498,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -542,6 +545,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -825,7 +831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7:I7"/>
     </sheetView>
   </sheetViews>
@@ -835,120 +841,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="15"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="14"/>
     </row>
     <row r="3" spans="1:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="17"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="18">
         <v>4</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="20"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="19"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="22"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="21"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="22"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="21"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="22"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="21"/>
     </row>
     <row r="9" spans="1:9" ht="174" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="22"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="21"/>
     </row>
     <row r="10" spans="1:9" ht="278" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="12"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="11"/>
     </row>
     <row r="11" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
@@ -971,8 +977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B529C7-E270-4893-96A7-E1315BD69EEA}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -987,14 +993,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="26"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -1032,7 +1038,7 @@
       <c r="E3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="26" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1052,7 +1058,7 @@
       <c r="E4" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="26" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1072,7 +1078,7 @@
       <c r="E5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="26" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1092,7 +1098,7 @@
       <c r="E6" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="26" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1112,7 +1118,7 @@
       <c r="E7" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="26" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1132,7 +1138,7 @@
       <c r="E8" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="26" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1152,7 +1158,7 @@
       <c r="E9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="26" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1172,7 +1178,7 @@
       <c r="E10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="26" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1294,8 +1300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29DBEBE5-E65B-48FE-ACB2-E1CF3882866A}">
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1309,14 +1315,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="26"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -1354,7 +1360,7 @@
       <c r="E3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="26" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1374,7 +1380,7 @@
       <c r="E4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="26" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1535,12 +1541,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1715,15 +1718,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A445DA8-61DA-4B15-A75B-C715E0A15404}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D20CED7A-A184-4DAD-98D0-D68B5D737C5B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="7db3b190-d1cf-4882-bee6-3064ce691739"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="7e7c8aa9-4be2-48a6-a0f7-80013db2e73b"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1748,18 +1763,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D20CED7A-A184-4DAD-98D0-D68B5D737C5B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A445DA8-61DA-4B15-A75B-C715E0A15404}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="7db3b190-d1cf-4882-bee6-3064ce691739"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="7e7c8aa9-4be2-48a6-a0f7-80013db2e73b"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>